--- a/ExcelReports/ExcelTemplates/PacientVisitHistory.xlsx
+++ b/ExcelReports/ExcelTemplates/PacientVisitHistory.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>История посещений пациента</t>
   </si>
@@ -52,11 +52,17 @@
   <si>
     <t>Должность</t>
   </si>
+  <si>
+    <t>Тип пациента</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,12 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -137,8 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -422,7 +430,7 @@
   <dimension ref="B1:D318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,982 +449,987 @@
       <c r="D1" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="7" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="8" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="9"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
+      <c r="B62" s="7"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="9"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="9"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="9"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="9"/>
+      <c r="B74" s="7"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="9"/>
+      <c r="B75" s="7"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="9"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="9"/>
+      <c r="B77" s="7"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="9"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="9"/>
+      <c r="B79" s="7"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="9"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="9"/>
+      <c r="B81" s="7"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="9"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="9"/>
+      <c r="B83" s="7"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="9"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="9"/>
+      <c r="B85" s="7"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
+      <c r="B87" s="7"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="9"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="9"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="9"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="9"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="9"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="9"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="9"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="9"/>
+      <c r="B95" s="7"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="9"/>
+      <c r="B96" s="7"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="9"/>
+      <c r="B97" s="7"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="9"/>
+      <c r="B98" s="7"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="9"/>
+      <c r="B99" s="7"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="9"/>
+      <c r="B100" s="7"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="9"/>
+      <c r="B101" s="7"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="9"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="9"/>
+      <c r="B103" s="7"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="9"/>
+      <c r="B104" s="7"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="9"/>
+      <c r="B105" s="7"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="9"/>
+      <c r="B106" s="7"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="9"/>
+      <c r="B107" s="7"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="9"/>
+      <c r="B108" s="7"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="9"/>
+      <c r="B109" s="7"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="9"/>
+      <c r="B110" s="7"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="9"/>
+      <c r="B111" s="7"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="9"/>
+      <c r="B112" s="7"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="9"/>
+      <c r="B113" s="7"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="9"/>
+      <c r="B114" s="7"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="9"/>
+      <c r="B115" s="7"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="9"/>
+      <c r="B116" s="7"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="9"/>
+      <c r="B117" s="7"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="9"/>
+      <c r="B118" s="7"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="9"/>
+      <c r="B119" s="7"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="9"/>
+      <c r="B120" s="7"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
+      <c r="B121" s="7"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="9"/>
+      <c r="B122" s="7"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="9"/>
+      <c r="B123" s="7"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="9"/>
+      <c r="B124" s="7"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="9"/>
+      <c r="B125" s="7"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="9"/>
+      <c r="B126" s="7"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="9"/>
+      <c r="B127" s="7"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="9"/>
+      <c r="B128" s="7"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="9"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="9"/>
+      <c r="B130" s="5"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="9"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="9"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="9"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="9"/>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="9"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="9"/>
+      <c r="B136" s="5"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="9"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="9"/>
+      <c r="B138" s="5"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="9"/>
+      <c r="B139" s="5"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="9"/>
+      <c r="B140" s="5"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="9"/>
+      <c r="B141" s="5"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="9"/>
+      <c r="B142" s="5"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="9"/>
+      <c r="B143" s="5"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="9"/>
+      <c r="B144" s="5"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="9"/>
+      <c r="B145" s="5"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="9"/>
+      <c r="B146" s="5"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="9"/>
+      <c r="B147" s="5"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="9"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="9"/>
+      <c r="B149" s="5"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="9"/>
+      <c r="B150" s="5"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="9"/>
+      <c r="B151" s="5"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="9"/>
+      <c r="B152" s="5"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="9"/>
+      <c r="B153" s="5"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="9"/>
+      <c r="B154" s="5"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="9"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="9"/>
+      <c r="B156" s="5"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="9"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="9"/>
+      <c r="B158" s="5"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="9"/>
+      <c r="B159" s="5"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="9"/>
+      <c r="B160" s="5"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="9"/>
+      <c r="B161" s="5"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="9"/>
+      <c r="B162" s="5"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="9"/>
+      <c r="B163" s="5"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="9"/>
+      <c r="B164" s="5"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="9"/>
+      <c r="B165" s="5"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="9"/>
+      <c r="B166" s="5"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="9"/>
+      <c r="B167" s="5"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="9"/>
+      <c r="B168" s="5"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="9"/>
+      <c r="B169" s="5"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="9"/>
+      <c r="B170" s="5"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="9"/>
+      <c r="B171" s="5"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="9"/>
+      <c r="B172" s="5"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="9"/>
+      <c r="B173" s="5"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="9"/>
+      <c r="B174" s="5"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="9"/>
+      <c r="B175" s="5"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="9"/>
+      <c r="B176" s="5"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="9"/>
+      <c r="B177" s="5"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="9"/>
+      <c r="B178" s="5"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="9"/>
+      <c r="B179" s="5"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="9"/>
+      <c r="B180" s="5"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="9"/>
+      <c r="B181" s="5"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="9"/>
+      <c r="B182" s="5"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="9"/>
+      <c r="B183" s="5"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="9"/>
+      <c r="B184" s="5"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="9"/>
+      <c r="B185" s="5"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="9"/>
+      <c r="B186" s="5"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="9"/>
+      <c r="B187" s="5"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="9"/>
+      <c r="B188" s="5"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="9"/>
+      <c r="B189" s="5"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="9"/>
+      <c r="B190" s="5"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="9"/>
+      <c r="B191" s="5"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="9"/>
+      <c r="B192" s="5"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="9"/>
+      <c r="B193" s="5"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="9"/>
+      <c r="B194" s="5"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="9"/>
+      <c r="B195" s="5"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="9"/>
+      <c r="B196" s="5"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="9"/>
+      <c r="B197" s="5"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="9"/>
+      <c r="B198" s="5"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="9"/>
+      <c r="B199" s="5"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="9"/>
+      <c r="B200" s="5"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="9"/>
+      <c r="B201" s="5"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="9"/>
+      <c r="B202" s="5"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="9"/>
+      <c r="B203" s="5"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="9"/>
+      <c r="B204" s="5"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="9"/>
+      <c r="B205" s="5"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="9"/>
+      <c r="B206" s="5"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="9"/>
+      <c r="B207" s="5"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="9"/>
+      <c r="B208" s="5"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="9"/>
+      <c r="B209" s="5"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="9"/>
+      <c r="B210" s="5"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="9"/>
+      <c r="B211" s="5"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="9"/>
+      <c r="B212" s="5"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="9"/>
+      <c r="B213" s="5"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="9"/>
+      <c r="B214" s="5"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="9"/>
+      <c r="B215" s="5"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="9"/>
+      <c r="B216" s="5"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="9"/>
+      <c r="B217" s="5"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="9"/>
+      <c r="B218" s="5"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="9"/>
+      <c r="B219" s="5"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="9"/>
+      <c r="B220" s="5"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="9"/>
+      <c r="B221" s="5"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="9"/>
+      <c r="B222" s="5"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="9"/>
+      <c r="B223" s="5"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="9"/>
+      <c r="B224" s="5"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="9"/>
+      <c r="B225" s="5"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="9"/>
+      <c r="B226" s="5"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="9"/>
+      <c r="B227" s="5"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="9"/>
+      <c r="B228" s="5"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="9"/>
+      <c r="B229" s="5"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="9"/>
+      <c r="B230" s="5"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="9"/>
+      <c r="B231" s="5"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="9"/>
+      <c r="B232" s="5"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="9"/>
+      <c r="B233" s="5"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="9"/>
+      <c r="B234" s="5"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="9"/>
+      <c r="B235" s="5"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="9"/>
+      <c r="B236" s="5"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="9"/>
+      <c r="B237" s="5"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="9"/>
+      <c r="B238" s="5"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="9"/>
+      <c r="B239" s="5"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="9"/>
+      <c r="B240" s="5"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="9"/>
+      <c r="B241" s="5"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="9"/>
+      <c r="B242" s="5"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="9"/>
+      <c r="B243" s="5"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="9"/>
+      <c r="B244" s="5"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="9"/>
+      <c r="B245" s="5"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="9"/>
+      <c r="B246" s="5"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="9"/>
+      <c r="B247" s="5"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="9"/>
+      <c r="B248" s="5"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="9"/>
+      <c r="B249" s="5"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="9"/>
+      <c r="B250" s="5"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="9"/>
+      <c r="B251" s="5"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="9"/>
+      <c r="B252" s="5"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="9"/>
+      <c r="B253" s="5"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="9"/>
+      <c r="B254" s="5"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="9"/>
+      <c r="B255" s="5"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="9"/>
+      <c r="B256" s="5"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="9"/>
+      <c r="B257" s="5"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="9"/>
+      <c r="B258" s="5"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="9"/>
+      <c r="B259" s="5"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="9"/>
+      <c r="B260" s="5"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="9"/>
+      <c r="B261" s="5"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="9"/>
+      <c r="B262" s="5"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="9"/>
+      <c r="B263" s="5"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="9"/>
+      <c r="B264" s="5"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="9"/>
+      <c r="B265" s="5"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="9"/>
+      <c r="B266" s="5"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="9"/>
+      <c r="B267" s="5"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="9"/>
+      <c r="B268" s="5"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="9"/>
+      <c r="B269" s="5"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="9"/>
+      <c r="B270" s="5"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="9"/>
+      <c r="B271" s="5"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="9"/>
+      <c r="B272" s="5"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="9"/>
+      <c r="B273" s="5"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="9"/>
+      <c r="B274" s="5"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="9"/>
+      <c r="B275" s="5"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="9"/>
+      <c r="B276" s="5"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="9"/>
+      <c r="B277" s="5"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="9"/>
+      <c r="B278" s="5"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="9"/>
+      <c r="B279" s="5"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="9"/>
+      <c r="B280" s="5"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="9"/>
+      <c r="B281" s="5"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="9"/>
+      <c r="B282" s="5"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="9"/>
+      <c r="B283" s="5"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="9"/>
+      <c r="B284" s="5"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="9"/>
+      <c r="B285" s="5"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="9"/>
+      <c r="B286" s="5"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="9"/>
+      <c r="B287" s="5"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="9"/>
+      <c r="B288" s="5"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="9"/>
+      <c r="B289" s="5"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="9"/>
+      <c r="B290" s="5"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="9"/>
+      <c r="B291" s="5"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="9"/>
+      <c r="B292" s="5"/>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="9"/>
+      <c r="B293" s="5"/>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="9"/>
+      <c r="B294" s="5"/>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="9"/>
+      <c r="B295" s="5"/>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="9"/>
+      <c r="B296" s="5"/>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" s="9"/>
+      <c r="B297" s="5"/>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="9"/>
+      <c r="B298" s="5"/>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="9"/>
+      <c r="B299" s="5"/>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="9"/>
+      <c r="B300" s="5"/>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="9"/>
+      <c r="B301" s="5"/>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" s="9"/>
+      <c r="B302" s="5"/>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="9"/>
+      <c r="B303" s="5"/>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="9"/>
+      <c r="B304" s="5"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" s="9"/>
+      <c r="B305" s="5"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" s="9"/>
+      <c r="B306" s="5"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" s="9"/>
+      <c r="B307" s="5"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" s="9"/>
+      <c r="B308" s="5"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" s="9"/>
+      <c r="B309" s="5"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" s="9"/>
+      <c r="B310" s="5"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="9"/>
+      <c r="B311" s="5"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" s="9"/>
+      <c r="B312" s="5"/>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" s="9"/>
+      <c r="B313" s="5"/>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" s="9"/>
+      <c r="B314" s="5"/>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="9"/>
+      <c r="B315" s="5"/>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="9"/>
+      <c r="B316" s="5"/>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" s="9"/>
+      <c r="B317" s="5"/>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" s="9"/>
+      <c r="B318" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B7:D7"/>
+  <mergeCells count="5">
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelReports/ExcelTemplates/PacientVisitHistory.xlsx
+++ b/ExcelReports/ExcelTemplates/PacientVisitHistory.xlsx
@@ -29,16 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>История посещений пациента</t>
-  </si>
-  <si>
-    <t>Пациент</t>
-  </si>
-  <si>
     <t>Адрес</t>
-  </si>
-  <si>
-    <t>Доктор</t>
   </si>
   <si>
     <t>Время посещения</t>
@@ -54,6 +45,15 @@
   </si>
   <si>
     <t>Тип пациента</t>
+  </si>
+  <si>
+    <t>История посещений инвалида или лица с ОВЗ</t>
+  </si>
+  <si>
+    <t>Инвалид или лицо с ОВЗ</t>
+  </si>
+  <si>
+    <t>Специалист</t>
   </si>
 </sst>
 </file>
@@ -137,6 +137,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -146,7 +147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,7 +430,7 @@
   <dimension ref="B1:D318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,55 +443,55 @@
   <sheetData>
     <row r="1" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="8" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
